--- a/biology/Médecine/Acide_carglumique/Acide_carglumique.xlsx
+++ b/biology/Médecine/Acide_carglumique/Acide_carglumique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide carglumique est le principe actif d'un médicament orphelin.
-L'acide carglumique est utilisé pour le traitement de l'hyperammoniémie chez les patients avec un déficit en N-acétylglutamate synthase[2],[3].
-Aux États-Unis, la Food and Drug Administration (FDA) a approuvé ce traitement de l'hyperammoniémie le 18 mars 2010[4],[5]. 
-En France, depuis le 8 janvier 2014, il a obtenu l’autorisation de mise sur le marché (AMM) dans le traitement des hyperammoniémies secondaires aux acidémies organiques (isovalérianique, méthylmalonique, propionique)[6].
+L'acide carglumique est utilisé pour le traitement de l'hyperammoniémie chez les patients avec un déficit en N-acétylglutamate synthase,.
+Aux États-Unis, la Food and Drug Administration (FDA) a approuvé ce traitement de l'hyperammoniémie le 18 mars 2010,. 
+En France, depuis le 8 janvier 2014, il a obtenu l’autorisation de mise sur le marché (AMM) dans le traitement des hyperammoniémies secondaires aux acidémies organiques (isovalérianique, méthylmalonique, propionique).
 </t>
         </is>
       </c>
